--- a/article_code/data/newdata/comparison/comparison.xlsx
+++ b/article_code/data/newdata/comparison/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://subsea7-my.sharepoint.com/personal/helio_souza_subsea7_com/Documents/Area de Trabalho/CEFET/Mestrado/Tese/Repo_BandWidth/BandWidths/article_code/data/newdata/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{83D16BE4-7042-442F-A4E0-3CBAAE9BD3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0533534F-B172-4272-B4DC-24C13B00614F}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{83D16BE4-7042-442F-A4E0-3CBAAE9BD3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EB3A5FB-6D9E-49D9-B79F-AABEAE038B68}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C3064AC5-9A1A-45FE-83B7-90E095DC3EF2}"/>
   </bookViews>
@@ -594,10 +594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8CF1A8-7B7A-4764-9721-D783EA60B9D0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,7 +717,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -729,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -742,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -755,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -903,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
@@ -916,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
@@ -929,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
@@ -942,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1147,7 +1148,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C3:D39" xr:uid="{BF8CF1A8-7B7A-4764-9721-D783EA60B9D0}"/>
+  <autoFilter ref="C3:D39" xr:uid="{BF8CF1A8-7B7A-4764-9721-D783EA60B9D0}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
